--- a/data_voor_swing/gebiedsdefinities/vervoerregio.xlsx
+++ b/data_voor_swing/gebiedsdefinities/vervoerregio.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,6 +680,42 @@
         </is>
       </c>
     </row>
+    <row r="17" spans="1:4" s="0" outlineLevel="0">
+      <c r="A17" s="23">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23">
+        <v>91</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vervoerregio onbekend (Vlaanderen)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Vervoerregio onbekend (Vlaanderen)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="0" outlineLevel="0">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23">
+        <v>99</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Buiten Vlaanderen en Brussel</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Buiten Vlaanderen en Brussel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_voor_swing/gebiedsdefinities/vervoerregio.xlsx
+++ b/data_voor_swing/gebiedsdefinities/vervoerregio.xlsx
@@ -419,12 +419,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aalst (Verv.)</t>
+          <t>Dender (Verv.)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aalst (Verv.)</t>
+          <t>Dender (Verv.)</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vervoerregio onbekend (Vlaanderen)</t>
+          <t>Niet te lokaliseren - Vlaanderen</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Vervoerregio onbekend (Vlaanderen)</t>
+          <t>Niet te lokaliseren - Vlaanderen</t>
         </is>
       </c>
     </row>
